--- a/Excel/Lv5Ground.xlsx
+++ b/Excel/Lv5Ground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B529FF6-96E7-4A11-9D6F-28D0AC63C2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768362EA-A502-47D1-8596-4E59CCF94BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9312" yWindow="276" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -147,9 +147,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -595,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
-  <dimension ref="A1:OP19"/>
+  <dimension ref="A1:OP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2334,70 +2331,70 @@
       <c r="OP2" s="2"/>
     </row>
     <row r="3" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>102</v>
-      </c>
-      <c r="B3" s="5">
-        <v>102</v>
-      </c>
-      <c r="C3" s="5">
-        <v>102</v>
-      </c>
-      <c r="D3" s="5">
-        <v>102</v>
-      </c>
-      <c r="E3" s="5">
-        <v>112</v>
-      </c>
-      <c r="F3" s="5">
-        <v>112</v>
-      </c>
-      <c r="G3" s="5">
-        <v>102</v>
-      </c>
-      <c r="H3" s="5">
-        <v>102</v>
-      </c>
-      <c r="I3" s="5">
-        <v>102</v>
-      </c>
-      <c r="J3" s="5">
-        <v>102</v>
-      </c>
-      <c r="K3" s="5">
-        <v>102</v>
-      </c>
-      <c r="L3" s="5">
-        <v>102</v>
-      </c>
-      <c r="M3" s="5">
-        <v>112</v>
-      </c>
-      <c r="N3" s="5">
-        <v>112</v>
-      </c>
-      <c r="O3" s="5">
-        <v>112</v>
-      </c>
-      <c r="P3" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>102</v>
-      </c>
-      <c r="R3" s="5">
-        <v>102</v>
-      </c>
-      <c r="S3" s="5">
-        <v>102</v>
-      </c>
-      <c r="T3" s="5">
-        <v>102</v>
-      </c>
-      <c r="U3" s="5">
-        <v>102</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="A3" s="4">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4">
+        <v>102</v>
+      </c>
+      <c r="D3" s="4">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4">
+        <v>112</v>
+      </c>
+      <c r="F3" s="4">
+        <v>112</v>
+      </c>
+      <c r="G3" s="4">
+        <v>102</v>
+      </c>
+      <c r="H3" s="4">
+        <v>102</v>
+      </c>
+      <c r="I3" s="4">
+        <v>102</v>
+      </c>
+      <c r="J3" s="4">
+        <v>102</v>
+      </c>
+      <c r="K3" s="4">
+        <v>102</v>
+      </c>
+      <c r="L3" s="4">
+        <v>102</v>
+      </c>
+      <c r="M3" s="4">
+        <v>112</v>
+      </c>
+      <c r="N3" s="4">
+        <v>112</v>
+      </c>
+      <c r="O3" s="4">
+        <v>112</v>
+      </c>
+      <c r="P3" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>102</v>
+      </c>
+      <c r="R3" s="4">
+        <v>102</v>
+      </c>
+      <c r="S3" s="4">
+        <v>102</v>
+      </c>
+      <c r="T3" s="4">
+        <v>102</v>
+      </c>
+      <c r="U3" s="4">
+        <v>102</v>
+      </c>
+      <c r="V3" s="4">
         <v>102</v>
       </c>
       <c r="W3" s="2">
@@ -2412,55 +2409,55 @@
       <c r="Z3" s="2">
         <v>103</v>
       </c>
-      <c r="AA3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>112</v>
-      </c>
-      <c r="AQ3" s="5">
+      <c r="AA3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>112</v>
+      </c>
+      <c r="AQ3" s="4">
         <v>112</v>
       </c>
       <c r="AR3" s="2">
@@ -2841,70 +2838,70 @@
       <c r="OP3" s="2"/>
     </row>
     <row r="4" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>102</v>
-      </c>
-      <c r="B4" s="5">
-        <v>102</v>
-      </c>
-      <c r="C4" s="5">
-        <v>102</v>
-      </c>
-      <c r="D4" s="5">
-        <v>112</v>
-      </c>
-      <c r="E4" s="5">
-        <v>112</v>
-      </c>
-      <c r="F4" s="5">
-        <v>112</v>
-      </c>
-      <c r="G4" s="5">
-        <v>102</v>
-      </c>
-      <c r="H4" s="5">
-        <v>102</v>
-      </c>
-      <c r="I4" s="5">
-        <v>102</v>
-      </c>
-      <c r="J4" s="5">
-        <v>112</v>
-      </c>
-      <c r="K4" s="5">
-        <v>112</v>
-      </c>
-      <c r="L4" s="5">
-        <v>112</v>
-      </c>
-      <c r="M4" s="5">
-        <v>112</v>
-      </c>
-      <c r="N4" s="5">
-        <v>112</v>
-      </c>
-      <c r="O4" s="5">
-        <v>112</v>
-      </c>
-      <c r="P4" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>102</v>
-      </c>
-      <c r="R4" s="5">
-        <v>102</v>
-      </c>
-      <c r="S4" s="5">
-        <v>102</v>
-      </c>
-      <c r="T4" s="5">
-        <v>102</v>
-      </c>
-      <c r="U4" s="5">
-        <v>102</v>
-      </c>
-      <c r="V4" s="5">
+      <c r="A4" s="4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4">
+        <v>102</v>
+      </c>
+      <c r="C4" s="4">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4">
+        <v>112</v>
+      </c>
+      <c r="E4" s="4">
+        <v>112</v>
+      </c>
+      <c r="F4" s="4">
+        <v>112</v>
+      </c>
+      <c r="G4" s="4">
+        <v>102</v>
+      </c>
+      <c r="H4" s="4">
+        <v>102</v>
+      </c>
+      <c r="I4" s="4">
+        <v>102</v>
+      </c>
+      <c r="J4" s="4">
+        <v>112</v>
+      </c>
+      <c r="K4" s="4">
+        <v>112</v>
+      </c>
+      <c r="L4" s="4">
+        <v>112</v>
+      </c>
+      <c r="M4" s="4">
+        <v>112</v>
+      </c>
+      <c r="N4" s="4">
+        <v>112</v>
+      </c>
+      <c r="O4" s="4">
+        <v>112</v>
+      </c>
+      <c r="P4" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>102</v>
+      </c>
+      <c r="R4" s="4">
+        <v>102</v>
+      </c>
+      <c r="S4" s="4">
+        <v>102</v>
+      </c>
+      <c r="T4" s="4">
+        <v>102</v>
+      </c>
+      <c r="U4" s="4">
+        <v>102</v>
+      </c>
+      <c r="V4" s="4">
         <v>102</v>
       </c>
       <c r="W4" s="2">
@@ -2916,61 +2913,61 @@
       <c r="Y4" s="2">
         <v>103</v>
       </c>
-      <c r="Z4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AP4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AQ4" s="5">
-        <v>112</v>
-      </c>
-      <c r="AR4" s="5">
+      <c r="Z4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>112</v>
+      </c>
+      <c r="AR4" s="4">
         <v>112</v>
       </c>
       <c r="AS4" s="2">
@@ -3348,70 +3345,70 @@
       <c r="OP4" s="2"/>
     </row>
     <row r="5" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>102</v>
-      </c>
-      <c r="B5" s="5">
-        <v>102</v>
-      </c>
-      <c r="C5" s="5">
-        <v>112</v>
-      </c>
-      <c r="D5" s="5">
-        <v>112</v>
-      </c>
-      <c r="E5" s="5">
-        <v>112</v>
-      </c>
-      <c r="F5" s="5">
-        <v>102</v>
-      </c>
-      <c r="G5" s="5">
-        <v>102</v>
-      </c>
-      <c r="H5" s="5">
-        <v>102</v>
-      </c>
-      <c r="I5" s="5">
-        <v>102</v>
-      </c>
-      <c r="J5" s="5">
-        <v>112</v>
-      </c>
-      <c r="K5" s="5">
-        <v>112</v>
-      </c>
-      <c r="L5" s="5">
-        <v>112</v>
-      </c>
-      <c r="M5" s="5">
-        <v>112</v>
-      </c>
-      <c r="N5" s="5">
-        <v>112</v>
-      </c>
-      <c r="O5" s="5">
-        <v>102</v>
-      </c>
-      <c r="P5" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>102</v>
-      </c>
-      <c r="R5" s="5">
-        <v>102</v>
-      </c>
-      <c r="S5" s="5">
-        <v>102</v>
-      </c>
-      <c r="T5" s="5">
-        <v>102</v>
-      </c>
-      <c r="U5" s="5">
-        <v>102</v>
-      </c>
-      <c r="V5" s="5">
+      <c r="A5" s="4">
+        <v>102</v>
+      </c>
+      <c r="B5" s="4">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4">
+        <v>112</v>
+      </c>
+      <c r="D5" s="4">
+        <v>112</v>
+      </c>
+      <c r="E5" s="4">
+        <v>112</v>
+      </c>
+      <c r="F5" s="4">
+        <v>102</v>
+      </c>
+      <c r="G5" s="4">
+        <v>102</v>
+      </c>
+      <c r="H5" s="4">
+        <v>102</v>
+      </c>
+      <c r="I5" s="4">
+        <v>102</v>
+      </c>
+      <c r="J5" s="4">
+        <v>112</v>
+      </c>
+      <c r="K5" s="4">
+        <v>112</v>
+      </c>
+      <c r="L5" s="4">
+        <v>112</v>
+      </c>
+      <c r="M5" s="4">
+        <v>112</v>
+      </c>
+      <c r="N5" s="4">
+        <v>112</v>
+      </c>
+      <c r="O5" s="4">
+        <v>102</v>
+      </c>
+      <c r="P5" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>102</v>
+      </c>
+      <c r="R5" s="4">
+        <v>102</v>
+      </c>
+      <c r="S5" s="4">
+        <v>102</v>
+      </c>
+      <c r="T5" s="4">
+        <v>102</v>
+      </c>
+      <c r="U5" s="4">
+        <v>102</v>
+      </c>
+      <c r="V5" s="4">
         <v>102</v>
       </c>
       <c r="W5" s="2">
@@ -3423,31 +3420,31 @@
       <c r="Y5" s="2">
         <v>103</v>
       </c>
-      <c r="Z5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>112</v>
-      </c>
-      <c r="AH5" s="5">
+      <c r="Z5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>112</v>
+      </c>
+      <c r="AH5" s="4">
         <v>112</v>
       </c>
       <c r="AI5" s="2">
@@ -3855,70 +3852,70 @@
       <c r="OP5" s="2"/>
     </row>
     <row r="6" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>112</v>
-      </c>
-      <c r="B6" s="5">
-        <v>112</v>
-      </c>
-      <c r="C6" s="5">
-        <v>112</v>
-      </c>
-      <c r="D6" s="5">
-        <v>102</v>
-      </c>
-      <c r="E6" s="5">
-        <v>102</v>
-      </c>
-      <c r="F6" s="5">
-        <v>102</v>
-      </c>
-      <c r="G6" s="5">
-        <v>102</v>
-      </c>
-      <c r="H6" s="5">
-        <v>102</v>
-      </c>
-      <c r="I6" s="5">
-        <v>102</v>
-      </c>
-      <c r="J6" s="5">
-        <v>102</v>
-      </c>
-      <c r="K6" s="5">
-        <v>112</v>
-      </c>
-      <c r="L6" s="5">
-        <v>112</v>
-      </c>
-      <c r="M6" s="5">
-        <v>102</v>
-      </c>
-      <c r="N6" s="5">
-        <v>102</v>
-      </c>
-      <c r="O6" s="5">
-        <v>102</v>
-      </c>
-      <c r="P6" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>102</v>
-      </c>
-      <c r="R6" s="5">
-        <v>102</v>
-      </c>
-      <c r="S6" s="5">
-        <v>102</v>
-      </c>
-      <c r="T6" s="5">
-        <v>102</v>
-      </c>
-      <c r="U6" s="5">
-        <v>102</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="A6" s="4">
+        <v>112</v>
+      </c>
+      <c r="B6" s="4">
+        <v>112</v>
+      </c>
+      <c r="C6" s="4">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4">
+        <v>102</v>
+      </c>
+      <c r="E6" s="4">
+        <v>102</v>
+      </c>
+      <c r="F6" s="4">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4">
+        <v>102</v>
+      </c>
+      <c r="H6" s="4">
+        <v>102</v>
+      </c>
+      <c r="I6" s="4">
+        <v>102</v>
+      </c>
+      <c r="J6" s="4">
+        <v>102</v>
+      </c>
+      <c r="K6" s="4">
+        <v>112</v>
+      </c>
+      <c r="L6" s="4">
+        <v>112</v>
+      </c>
+      <c r="M6" s="4">
+        <v>102</v>
+      </c>
+      <c r="N6" s="4">
+        <v>102</v>
+      </c>
+      <c r="O6" s="4">
+        <v>102</v>
+      </c>
+      <c r="P6" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>102</v>
+      </c>
+      <c r="R6" s="4">
+        <v>102</v>
+      </c>
+      <c r="S6" s="4">
+        <v>102</v>
+      </c>
+      <c r="T6" s="4">
+        <v>102</v>
+      </c>
+      <c r="U6" s="4">
+        <v>102</v>
+      </c>
+      <c r="V6" s="4">
         <v>102</v>
       </c>
       <c r="W6" s="2">
@@ -3930,28 +3927,28 @@
       <c r="Y6" s="2">
         <v>103</v>
       </c>
-      <c r="Z6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG6" s="5">
+      <c r="Z6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG6" s="4">
         <v>112</v>
       </c>
       <c r="AH6" s="2">
@@ -4362,70 +4359,70 @@
       <c r="OP6" s="2"/>
     </row>
     <row r="7" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>102</v>
-      </c>
-      <c r="B7" s="5">
-        <v>102</v>
-      </c>
-      <c r="C7" s="5">
-        <v>102</v>
-      </c>
-      <c r="D7" s="5">
-        <v>102</v>
-      </c>
-      <c r="E7" s="5">
-        <v>102</v>
-      </c>
-      <c r="F7" s="5">
-        <v>102</v>
-      </c>
-      <c r="G7" s="5">
-        <v>102</v>
-      </c>
-      <c r="H7" s="5">
-        <v>102</v>
-      </c>
-      <c r="I7" s="5">
-        <v>102</v>
-      </c>
-      <c r="J7" s="5">
-        <v>102</v>
-      </c>
-      <c r="K7" s="5">
-        <v>102</v>
-      </c>
-      <c r="L7" s="5">
-        <v>102</v>
-      </c>
-      <c r="M7" s="5">
-        <v>102</v>
-      </c>
-      <c r="N7" s="5">
-        <v>102</v>
-      </c>
-      <c r="O7" s="5">
-        <v>102</v>
-      </c>
-      <c r="P7" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>102</v>
-      </c>
-      <c r="R7" s="5">
-        <v>102</v>
-      </c>
-      <c r="S7" s="5">
-        <v>102</v>
-      </c>
-      <c r="T7" s="5">
-        <v>102</v>
-      </c>
-      <c r="U7" s="5">
-        <v>102</v>
-      </c>
-      <c r="V7" s="5">
+      <c r="A7" s="4">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4">
+        <v>102</v>
+      </c>
+      <c r="G7" s="4">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4">
+        <v>102</v>
+      </c>
+      <c r="I7" s="4">
+        <v>102</v>
+      </c>
+      <c r="J7" s="4">
+        <v>102</v>
+      </c>
+      <c r="K7" s="4">
+        <v>102</v>
+      </c>
+      <c r="L7" s="4">
+        <v>102</v>
+      </c>
+      <c r="M7" s="4">
+        <v>102</v>
+      </c>
+      <c r="N7" s="4">
+        <v>102</v>
+      </c>
+      <c r="O7" s="4">
+        <v>102</v>
+      </c>
+      <c r="P7" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>102</v>
+      </c>
+      <c r="R7" s="4">
+        <v>102</v>
+      </c>
+      <c r="S7" s="4">
+        <v>102</v>
+      </c>
+      <c r="T7" s="4">
+        <v>102</v>
+      </c>
+      <c r="U7" s="4">
+        <v>102</v>
+      </c>
+      <c r="V7" s="4">
         <v>102</v>
       </c>
       <c r="W7" s="2">
@@ -4437,52 +4434,52 @@
       <c r="Y7" s="2">
         <v>103</v>
       </c>
-      <c r="Z7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="5">
+      <c r="Z7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>112</v>
+      </c>
+      <c r="AO7" s="4">
         <v>112</v>
       </c>
       <c r="AP7" s="2">
@@ -4869,70 +4866,70 @@
       <c r="OP7" s="2"/>
     </row>
     <row r="8" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>102</v>
-      </c>
-      <c r="B8" s="5">
-        <v>102</v>
-      </c>
-      <c r="C8" s="5">
-        <v>102</v>
-      </c>
-      <c r="D8" s="5">
-        <v>102</v>
-      </c>
-      <c r="E8" s="5">
-        <v>102</v>
-      </c>
-      <c r="F8" s="5">
-        <v>102</v>
-      </c>
-      <c r="G8" s="5">
-        <v>102</v>
-      </c>
-      <c r="H8" s="5">
-        <v>102</v>
-      </c>
-      <c r="I8" s="5">
-        <v>102</v>
-      </c>
-      <c r="J8" s="5">
-        <v>102</v>
-      </c>
-      <c r="K8" s="5">
-        <v>102</v>
-      </c>
-      <c r="L8" s="5">
-        <v>102</v>
-      </c>
-      <c r="M8" s="5">
-        <v>102</v>
-      </c>
-      <c r="N8" s="5">
-        <v>102</v>
-      </c>
-      <c r="O8" s="5">
-        <v>102</v>
-      </c>
-      <c r="P8" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>102</v>
-      </c>
-      <c r="R8" s="5">
-        <v>102</v>
-      </c>
-      <c r="S8" s="5">
-        <v>102</v>
-      </c>
-      <c r="T8" s="5">
-        <v>102</v>
-      </c>
-      <c r="U8" s="5">
-        <v>102</v>
-      </c>
-      <c r="V8" s="5">
+      <c r="A8" s="4">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4">
+        <v>102</v>
+      </c>
+      <c r="D8" s="4">
+        <v>102</v>
+      </c>
+      <c r="E8" s="4">
+        <v>102</v>
+      </c>
+      <c r="F8" s="4">
+        <v>102</v>
+      </c>
+      <c r="G8" s="4">
+        <v>102</v>
+      </c>
+      <c r="H8" s="4">
+        <v>102</v>
+      </c>
+      <c r="I8" s="4">
+        <v>102</v>
+      </c>
+      <c r="J8" s="4">
+        <v>102</v>
+      </c>
+      <c r="K8" s="4">
+        <v>102</v>
+      </c>
+      <c r="L8" s="4">
+        <v>102</v>
+      </c>
+      <c r="M8" s="4">
+        <v>102</v>
+      </c>
+      <c r="N8" s="4">
+        <v>102</v>
+      </c>
+      <c r="O8" s="4">
+        <v>102</v>
+      </c>
+      <c r="P8" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>102</v>
+      </c>
+      <c r="R8" s="4">
+        <v>102</v>
+      </c>
+      <c r="S8" s="4">
+        <v>102</v>
+      </c>
+      <c r="T8" s="4">
+        <v>102</v>
+      </c>
+      <c r="U8" s="4">
+        <v>102</v>
+      </c>
+      <c r="V8" s="4">
         <v>102</v>
       </c>
       <c r="W8" s="2">
@@ -5376,70 +5373,70 @@
       <c r="OP8" s="2"/>
     </row>
     <row r="9" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>102</v>
-      </c>
-      <c r="B9" s="5">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5">
-        <v>102</v>
-      </c>
-      <c r="D9" s="5">
-        <v>102</v>
-      </c>
-      <c r="E9" s="5">
-        <v>102</v>
-      </c>
-      <c r="F9" s="5">
-        <v>102</v>
-      </c>
-      <c r="G9" s="5">
-        <v>102</v>
-      </c>
-      <c r="H9" s="5">
-        <v>102</v>
-      </c>
-      <c r="I9" s="5">
-        <v>102</v>
-      </c>
-      <c r="J9" s="5">
-        <v>102</v>
-      </c>
-      <c r="K9" s="5">
-        <v>102</v>
-      </c>
-      <c r="L9" s="5">
-        <v>102</v>
-      </c>
-      <c r="M9" s="5">
-        <v>102</v>
-      </c>
-      <c r="N9" s="5">
-        <v>102</v>
-      </c>
-      <c r="O9" s="5">
-        <v>102</v>
-      </c>
-      <c r="P9" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>102</v>
-      </c>
-      <c r="R9" s="5">
-        <v>102</v>
-      </c>
-      <c r="S9" s="5">
-        <v>102</v>
-      </c>
-      <c r="T9" s="5">
-        <v>102</v>
-      </c>
-      <c r="U9" s="5">
-        <v>102</v>
-      </c>
-      <c r="V9" s="5">
+      <c r="A9" s="4">
+        <v>102</v>
+      </c>
+      <c r="B9" s="4">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4">
+        <v>102</v>
+      </c>
+      <c r="D9" s="4">
+        <v>102</v>
+      </c>
+      <c r="E9" s="4">
+        <v>102</v>
+      </c>
+      <c r="F9" s="4">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4">
+        <v>102</v>
+      </c>
+      <c r="I9" s="4">
+        <v>102</v>
+      </c>
+      <c r="J9" s="4">
+        <v>102</v>
+      </c>
+      <c r="K9" s="4">
+        <v>102</v>
+      </c>
+      <c r="L9" s="4">
+        <v>102</v>
+      </c>
+      <c r="M9" s="4">
+        <v>102</v>
+      </c>
+      <c r="N9" s="4">
+        <v>102</v>
+      </c>
+      <c r="O9" s="4">
+        <v>102</v>
+      </c>
+      <c r="P9" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>102</v>
+      </c>
+      <c r="R9" s="4">
+        <v>102</v>
+      </c>
+      <c r="S9" s="4">
+        <v>102</v>
+      </c>
+      <c r="T9" s="4">
+        <v>102</v>
+      </c>
+      <c r="U9" s="4">
+        <v>102</v>
+      </c>
+      <c r="V9" s="4">
         <v>102</v>
       </c>
       <c r="W9" s="2">
@@ -5466,10 +5463,10 @@
       <c r="AD9" s="2">
         <v>102</v>
       </c>
-      <c r="AE9" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF9" s="5">
+      <c r="AE9" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF9" s="4">
         <v>112</v>
       </c>
       <c r="AG9" s="2">
@@ -5883,70 +5880,70 @@
       <c r="OP9" s="2"/>
     </row>
     <row r="10" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>102</v>
-      </c>
-      <c r="B10" s="5">
-        <v>102</v>
-      </c>
-      <c r="C10" s="5">
-        <v>102</v>
-      </c>
-      <c r="D10" s="5">
-        <v>102</v>
-      </c>
-      <c r="E10" s="5">
-        <v>102</v>
-      </c>
-      <c r="F10" s="5">
-        <v>102</v>
-      </c>
-      <c r="G10" s="5">
-        <v>102</v>
-      </c>
-      <c r="H10" s="5">
-        <v>102</v>
-      </c>
-      <c r="I10" s="5">
-        <v>102</v>
-      </c>
-      <c r="J10" s="5">
-        <v>102</v>
-      </c>
-      <c r="K10" s="5">
-        <v>102</v>
-      </c>
-      <c r="L10" s="5">
-        <v>102</v>
-      </c>
-      <c r="M10" s="5">
-        <v>102</v>
-      </c>
-      <c r="N10" s="5">
-        <v>102</v>
-      </c>
-      <c r="O10" s="5">
-        <v>102</v>
-      </c>
-      <c r="P10" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>102</v>
-      </c>
-      <c r="R10" s="5">
-        <v>102</v>
-      </c>
-      <c r="S10" s="5">
-        <v>102</v>
-      </c>
-      <c r="T10" s="5">
-        <v>102</v>
-      </c>
-      <c r="U10" s="5">
-        <v>102</v>
-      </c>
-      <c r="V10" s="5">
+      <c r="A10" s="4">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4">
+        <v>102</v>
+      </c>
+      <c r="D10" s="4">
+        <v>102</v>
+      </c>
+      <c r="E10" s="4">
+        <v>102</v>
+      </c>
+      <c r="F10" s="4">
+        <v>102</v>
+      </c>
+      <c r="G10" s="4">
+        <v>102</v>
+      </c>
+      <c r="H10" s="4">
+        <v>102</v>
+      </c>
+      <c r="I10" s="4">
+        <v>102</v>
+      </c>
+      <c r="J10" s="4">
+        <v>102</v>
+      </c>
+      <c r="K10" s="4">
+        <v>102</v>
+      </c>
+      <c r="L10" s="4">
+        <v>102</v>
+      </c>
+      <c r="M10" s="4">
+        <v>102</v>
+      </c>
+      <c r="N10" s="4">
+        <v>102</v>
+      </c>
+      <c r="O10" s="4">
+        <v>102</v>
+      </c>
+      <c r="P10" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>102</v>
+      </c>
+      <c r="R10" s="4">
+        <v>102</v>
+      </c>
+      <c r="S10" s="4">
+        <v>102</v>
+      </c>
+      <c r="T10" s="4">
+        <v>102</v>
+      </c>
+      <c r="U10" s="4">
+        <v>102</v>
+      </c>
+      <c r="V10" s="4">
         <v>102</v>
       </c>
       <c r="W10" s="2">
@@ -5973,10 +5970,10 @@
       <c r="AD10" s="2">
         <v>102</v>
       </c>
-      <c r="AE10" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF10" s="5">
+      <c r="AE10" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF10" s="4">
         <v>112</v>
       </c>
       <c r="AG10" s="2">
@@ -6390,70 +6387,70 @@
       <c r="OP10" s="2"/>
     </row>
     <row r="11" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>102</v>
-      </c>
-      <c r="B11" s="5">
-        <v>102</v>
-      </c>
-      <c r="C11" s="5">
-        <v>102</v>
-      </c>
-      <c r="D11" s="5">
-        <v>102</v>
-      </c>
-      <c r="E11" s="5">
-        <v>102</v>
-      </c>
-      <c r="F11" s="5">
-        <v>102</v>
-      </c>
-      <c r="G11" s="5">
-        <v>102</v>
-      </c>
-      <c r="H11" s="5">
-        <v>102</v>
-      </c>
-      <c r="I11" s="5">
-        <v>102</v>
-      </c>
-      <c r="J11" s="5">
-        <v>102</v>
-      </c>
-      <c r="K11" s="5">
-        <v>102</v>
-      </c>
-      <c r="L11" s="5">
-        <v>102</v>
-      </c>
-      <c r="M11" s="5">
-        <v>102</v>
-      </c>
-      <c r="N11" s="5">
-        <v>102</v>
-      </c>
-      <c r="O11" s="5">
-        <v>102</v>
-      </c>
-      <c r="P11" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>112</v>
-      </c>
-      <c r="R11" s="5">
-        <v>112</v>
-      </c>
-      <c r="S11" s="5">
-        <v>102</v>
-      </c>
-      <c r="T11" s="5">
-        <v>102</v>
-      </c>
-      <c r="U11" s="5">
-        <v>102</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="A11" s="4">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4">
+        <v>102</v>
+      </c>
+      <c r="D11" s="4">
+        <v>102</v>
+      </c>
+      <c r="E11" s="4">
+        <v>102</v>
+      </c>
+      <c r="F11" s="4">
+        <v>102</v>
+      </c>
+      <c r="G11" s="4">
+        <v>102</v>
+      </c>
+      <c r="H11" s="4">
+        <v>102</v>
+      </c>
+      <c r="I11" s="4">
+        <v>102</v>
+      </c>
+      <c r="J11" s="4">
+        <v>102</v>
+      </c>
+      <c r="K11" s="4">
+        <v>102</v>
+      </c>
+      <c r="L11" s="4">
+        <v>102</v>
+      </c>
+      <c r="M11" s="4">
+        <v>102</v>
+      </c>
+      <c r="N11" s="4">
+        <v>102</v>
+      </c>
+      <c r="O11" s="4">
+        <v>102</v>
+      </c>
+      <c r="P11" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>112</v>
+      </c>
+      <c r="R11" s="4">
+        <v>112</v>
+      </c>
+      <c r="S11" s="4">
+        <v>102</v>
+      </c>
+      <c r="T11" s="4">
+        <v>102</v>
+      </c>
+      <c r="U11" s="4">
+        <v>102</v>
+      </c>
+      <c r="V11" s="4">
         <v>102</v>
       </c>
       <c r="W11" s="2">
@@ -6480,46 +6477,46 @@
       <c r="AD11" s="2">
         <v>102</v>
       </c>
-      <c r="AE11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AI11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AO11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AP11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AQ11" s="5">
-        <v>112</v>
-      </c>
-      <c r="AR11" s="5">
+      <c r="AE11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>112</v>
+      </c>
+      <c r="AR11" s="4">
         <v>112</v>
       </c>
       <c r="AS11" s="2">
@@ -6897,70 +6894,70 @@
       <c r="OP11" s="2"/>
     </row>
     <row r="12" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>102</v>
-      </c>
-      <c r="B12" s="5">
-        <v>102</v>
-      </c>
-      <c r="C12" s="5">
-        <v>102</v>
-      </c>
-      <c r="D12" s="5">
-        <v>102</v>
-      </c>
-      <c r="E12" s="5">
-        <v>102</v>
-      </c>
-      <c r="F12" s="5">
-        <v>102</v>
-      </c>
-      <c r="G12" s="5">
-        <v>102</v>
-      </c>
-      <c r="H12" s="5">
-        <v>102</v>
-      </c>
-      <c r="I12" s="5">
-        <v>102</v>
-      </c>
-      <c r="J12" s="5">
-        <v>102</v>
-      </c>
-      <c r="K12" s="5">
-        <v>102</v>
-      </c>
-      <c r="L12" s="5">
-        <v>102</v>
-      </c>
-      <c r="M12" s="5">
-        <v>102</v>
-      </c>
-      <c r="N12" s="5">
-        <v>102</v>
-      </c>
-      <c r="O12" s="5">
-        <v>102</v>
-      </c>
-      <c r="P12" s="5">
-        <v>112</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>112</v>
-      </c>
-      <c r="R12" s="5">
-        <v>112</v>
-      </c>
-      <c r="S12" s="5">
-        <v>112</v>
-      </c>
-      <c r="T12" s="5">
-        <v>102</v>
-      </c>
-      <c r="U12" s="5">
-        <v>102</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="A12" s="4">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4">
+        <v>102</v>
+      </c>
+      <c r="F12" s="4">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4">
+        <v>102</v>
+      </c>
+      <c r="H12" s="4">
+        <v>102</v>
+      </c>
+      <c r="I12" s="4">
+        <v>102</v>
+      </c>
+      <c r="J12" s="4">
+        <v>102</v>
+      </c>
+      <c r="K12" s="4">
+        <v>102</v>
+      </c>
+      <c r="L12" s="4">
+        <v>102</v>
+      </c>
+      <c r="M12" s="4">
+        <v>102</v>
+      </c>
+      <c r="N12" s="4">
+        <v>102</v>
+      </c>
+      <c r="O12" s="4">
+        <v>102</v>
+      </c>
+      <c r="P12" s="4">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>112</v>
+      </c>
+      <c r="R12" s="4">
+        <v>112</v>
+      </c>
+      <c r="S12" s="4">
+        <v>112</v>
+      </c>
+      <c r="T12" s="4">
+        <v>102</v>
+      </c>
+      <c r="U12" s="4">
+        <v>102</v>
+      </c>
+      <c r="V12" s="4">
         <v>102</v>
       </c>
       <c r="W12" s="2">
@@ -6987,46 +6984,46 @@
       <c r="AD12" s="2">
         <v>102</v>
       </c>
-      <c r="AE12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AI12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AK12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AL12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AN12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AO12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AP12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AQ12" s="5">
-        <v>112</v>
-      </c>
-      <c r="AR12" s="5">
+      <c r="AE12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>112</v>
+      </c>
+      <c r="AR12" s="4">
         <v>112</v>
       </c>
       <c r="AS12" s="2">
@@ -7404,70 +7401,70 @@
       <c r="OP12" s="2"/>
     </row>
     <row r="13" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>102</v>
-      </c>
-      <c r="B13" s="5">
-        <v>102</v>
-      </c>
-      <c r="C13" s="5">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5">
-        <v>102</v>
-      </c>
-      <c r="E13" s="5">
-        <v>112</v>
-      </c>
-      <c r="F13" s="5">
-        <v>112</v>
-      </c>
-      <c r="G13" s="5">
-        <v>112</v>
-      </c>
-      <c r="H13" s="5">
-        <v>102</v>
-      </c>
-      <c r="I13" s="5">
-        <v>102</v>
-      </c>
-      <c r="J13" s="5">
-        <v>102</v>
-      </c>
-      <c r="K13" s="5">
-        <v>102</v>
-      </c>
-      <c r="L13" s="5">
-        <v>102</v>
-      </c>
-      <c r="M13" s="5">
-        <v>102</v>
-      </c>
-      <c r="N13" s="5">
-        <v>102</v>
-      </c>
-      <c r="O13" s="5">
-        <v>102</v>
-      </c>
-      <c r="P13" s="5">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>112</v>
-      </c>
-      <c r="R13" s="5">
-        <v>112</v>
-      </c>
-      <c r="S13" s="5">
-        <v>112</v>
-      </c>
-      <c r="T13" s="5">
-        <v>102</v>
-      </c>
-      <c r="U13" s="5">
-        <v>102</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="A13" s="4">
+        <v>102</v>
+      </c>
+      <c r="B13" s="4">
+        <v>102</v>
+      </c>
+      <c r="C13" s="4">
+        <v>102</v>
+      </c>
+      <c r="D13" s="4">
+        <v>102</v>
+      </c>
+      <c r="E13" s="4">
+        <v>102</v>
+      </c>
+      <c r="F13" s="4">
+        <v>102</v>
+      </c>
+      <c r="G13" s="4">
+        <v>102</v>
+      </c>
+      <c r="H13" s="4">
+        <v>102</v>
+      </c>
+      <c r="I13" s="4">
+        <v>102</v>
+      </c>
+      <c r="J13" s="4">
+        <v>102</v>
+      </c>
+      <c r="K13" s="4">
+        <v>102</v>
+      </c>
+      <c r="L13" s="4">
+        <v>102</v>
+      </c>
+      <c r="M13" s="4">
+        <v>102</v>
+      </c>
+      <c r="N13" s="4">
+        <v>102</v>
+      </c>
+      <c r="O13" s="4">
+        <v>102</v>
+      </c>
+      <c r="P13" s="4">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>112</v>
+      </c>
+      <c r="R13" s="4">
+        <v>112</v>
+      </c>
+      <c r="S13" s="4">
+        <v>112</v>
+      </c>
+      <c r="T13" s="4">
+        <v>102</v>
+      </c>
+      <c r="U13" s="4">
+        <v>102</v>
+      </c>
+      <c r="V13" s="4">
         <v>102</v>
       </c>
       <c r="W13" s="2">
@@ -7494,10 +7491,10 @@
       <c r="AD13" s="2">
         <v>102</v>
       </c>
-      <c r="AE13" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF13" s="5">
+      <c r="AE13" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF13" s="4">
         <v>112</v>
       </c>
       <c r="AG13" s="2">
@@ -7515,10 +7512,10 @@
       <c r="AK13" s="2">
         <v>102</v>
       </c>
-      <c r="AL13" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM13" s="5">
+      <c r="AL13" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM13" s="4">
         <v>112</v>
       </c>
       <c r="AN13" s="2">
@@ -7911,70 +7908,70 @@
       <c r="OP13" s="2"/>
     </row>
     <row r="14" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>102</v>
-      </c>
-      <c r="B14" s="5">
-        <v>112</v>
-      </c>
-      <c r="C14" s="5">
-        <v>102</v>
-      </c>
-      <c r="D14" s="5">
-        <v>102</v>
-      </c>
-      <c r="E14" s="5">
-        <v>112</v>
-      </c>
-      <c r="F14" s="5">
-        <v>112</v>
-      </c>
-      <c r="G14" s="5">
-        <v>112</v>
-      </c>
-      <c r="H14" s="5">
-        <v>112</v>
-      </c>
-      <c r="I14" s="5">
-        <v>102</v>
-      </c>
-      <c r="J14" s="5">
-        <v>102</v>
-      </c>
-      <c r="K14" s="5">
-        <v>102</v>
-      </c>
-      <c r="L14" s="5">
-        <v>102</v>
-      </c>
-      <c r="M14" s="5">
-        <v>102</v>
-      </c>
-      <c r="N14" s="5">
-        <v>102</v>
-      </c>
-      <c r="O14" s="5">
-        <v>102</v>
-      </c>
-      <c r="P14" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>112</v>
-      </c>
-      <c r="R14" s="5">
-        <v>112</v>
-      </c>
-      <c r="S14" s="5">
-        <v>102</v>
-      </c>
-      <c r="T14" s="5">
-        <v>102</v>
-      </c>
-      <c r="U14" s="5">
-        <v>102</v>
-      </c>
-      <c r="V14" s="5">
+      <c r="A14" s="4">
+        <v>102</v>
+      </c>
+      <c r="B14" s="4">
+        <v>112</v>
+      </c>
+      <c r="C14" s="4">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4">
+        <v>102</v>
+      </c>
+      <c r="E14" s="4">
+        <v>102</v>
+      </c>
+      <c r="F14" s="4">
+        <v>112</v>
+      </c>
+      <c r="G14" s="4">
+        <v>112</v>
+      </c>
+      <c r="H14" s="4">
+        <v>112</v>
+      </c>
+      <c r="I14" s="4">
+        <v>102</v>
+      </c>
+      <c r="J14" s="4">
+        <v>102</v>
+      </c>
+      <c r="K14" s="4">
+        <v>102</v>
+      </c>
+      <c r="L14" s="4">
+        <v>102</v>
+      </c>
+      <c r="M14" s="4">
+        <v>102</v>
+      </c>
+      <c r="N14" s="4">
+        <v>102</v>
+      </c>
+      <c r="O14" s="4">
+        <v>102</v>
+      </c>
+      <c r="P14" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>112</v>
+      </c>
+      <c r="R14" s="4">
+        <v>112</v>
+      </c>
+      <c r="S14" s="4">
+        <v>102</v>
+      </c>
+      <c r="T14" s="4">
+        <v>102</v>
+      </c>
+      <c r="U14" s="4">
+        <v>102</v>
+      </c>
+      <c r="V14" s="4">
         <v>102</v>
       </c>
       <c r="W14" s="2">
@@ -8001,10 +7998,10 @@
       <c r="AD14" s="2">
         <v>102</v>
       </c>
-      <c r="AE14" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF14" s="5">
+      <c r="AE14" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF14" s="4">
         <v>112</v>
       </c>
       <c r="AG14" s="2">
@@ -8022,10 +8019,10 @@
       <c r="AK14" s="2">
         <v>102</v>
       </c>
-      <c r="AL14" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM14" s="5">
+      <c r="AL14" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM14" s="4">
         <v>112</v>
       </c>
       <c r="AN14" s="2">
@@ -8418,70 +8415,70 @@
       <c r="OP14" s="2"/>
     </row>
     <row r="15" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>112</v>
-      </c>
-      <c r="B15" s="5">
-        <v>112</v>
-      </c>
-      <c r="C15" s="5">
-        <v>112</v>
-      </c>
-      <c r="D15" s="5">
-        <v>112</v>
-      </c>
-      <c r="E15" s="5">
-        <v>112</v>
-      </c>
-      <c r="F15" s="5">
-        <v>112</v>
-      </c>
-      <c r="G15" s="5">
-        <v>112</v>
-      </c>
-      <c r="H15" s="5">
-        <v>112</v>
-      </c>
-      <c r="I15" s="5">
-        <v>112</v>
-      </c>
-      <c r="J15" s="5">
-        <v>102</v>
-      </c>
-      <c r="K15" s="5">
-        <v>102</v>
-      </c>
-      <c r="L15" s="5">
-        <v>102</v>
-      </c>
-      <c r="M15" s="5">
-        <v>102</v>
-      </c>
-      <c r="N15" s="5">
-        <v>102</v>
-      </c>
-      <c r="O15" s="5">
-        <v>102</v>
-      </c>
-      <c r="P15" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>102</v>
-      </c>
-      <c r="R15" s="5">
-        <v>102</v>
-      </c>
-      <c r="S15" s="5">
-        <v>102</v>
-      </c>
-      <c r="T15" s="5">
-        <v>102</v>
-      </c>
-      <c r="U15" s="5">
-        <v>102</v>
-      </c>
-      <c r="V15" s="5">
+      <c r="A15" s="4">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4">
+        <v>102</v>
+      </c>
+      <c r="E15" s="4">
+        <v>112</v>
+      </c>
+      <c r="F15" s="4">
+        <v>112</v>
+      </c>
+      <c r="G15" s="4">
+        <v>112</v>
+      </c>
+      <c r="H15" s="4">
+        <v>112</v>
+      </c>
+      <c r="I15" s="4">
+        <v>112</v>
+      </c>
+      <c r="J15" s="4">
+        <v>102</v>
+      </c>
+      <c r="K15" s="4">
+        <v>102</v>
+      </c>
+      <c r="L15" s="4">
+        <v>102</v>
+      </c>
+      <c r="M15" s="4">
+        <v>102</v>
+      </c>
+      <c r="N15" s="4">
+        <v>102</v>
+      </c>
+      <c r="O15" s="4">
+        <v>102</v>
+      </c>
+      <c r="P15" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>102</v>
+      </c>
+      <c r="R15" s="4">
+        <v>102</v>
+      </c>
+      <c r="S15" s="4">
+        <v>102</v>
+      </c>
+      <c r="T15" s="4">
+        <v>102</v>
+      </c>
+      <c r="U15" s="4">
+        <v>102</v>
+      </c>
+      <c r="V15" s="4">
         <v>102</v>
       </c>
       <c r="W15" s="2">
@@ -8508,10 +8505,10 @@
       <c r="AD15" s="2">
         <v>102</v>
       </c>
-      <c r="AE15" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF15" s="5">
+      <c r="AE15" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF15" s="4">
         <v>112</v>
       </c>
       <c r="AG15" s="2">
@@ -8529,10 +8526,10 @@
       <c r="AK15" s="2">
         <v>102</v>
       </c>
-      <c r="AL15" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM15" s="5">
+      <c r="AL15" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM15" s="4">
         <v>112</v>
       </c>
       <c r="AN15" s="2">
@@ -8925,70 +8922,70 @@
       <c r="OP15" s="2"/>
     </row>
     <row r="16" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>112</v>
-      </c>
-      <c r="B16" s="5">
-        <v>112</v>
-      </c>
-      <c r="C16" s="5">
-        <v>112</v>
-      </c>
-      <c r="D16" s="5">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5">
-        <v>112</v>
-      </c>
-      <c r="F16" s="5">
-        <v>112</v>
-      </c>
-      <c r="G16" s="5">
-        <v>112</v>
-      </c>
-      <c r="H16" s="5">
-        <v>112</v>
-      </c>
-      <c r="I16" s="5">
-        <v>112</v>
-      </c>
-      <c r="J16" s="5">
-        <v>112</v>
-      </c>
-      <c r="K16" s="5">
-        <v>102</v>
-      </c>
-      <c r="L16" s="5">
-        <v>102</v>
-      </c>
-      <c r="M16" s="5">
-        <v>102</v>
-      </c>
-      <c r="N16" s="5">
-        <v>102</v>
-      </c>
-      <c r="O16" s="5">
-        <v>102</v>
-      </c>
-      <c r="P16" s="5">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>102</v>
-      </c>
-      <c r="R16" s="5">
-        <v>102</v>
-      </c>
-      <c r="S16" s="5">
-        <v>102</v>
-      </c>
-      <c r="T16" s="5">
-        <v>102</v>
-      </c>
-      <c r="U16" s="5">
-        <v>102</v>
-      </c>
-      <c r="V16" s="5">
+      <c r="A16" s="4">
+        <v>112</v>
+      </c>
+      <c r="B16" s="4">
+        <v>112</v>
+      </c>
+      <c r="C16" s="4">
+        <v>112</v>
+      </c>
+      <c r="D16" s="4">
+        <v>112</v>
+      </c>
+      <c r="E16" s="4">
+        <v>112</v>
+      </c>
+      <c r="F16" s="4">
+        <v>112</v>
+      </c>
+      <c r="G16" s="4">
+        <v>112</v>
+      </c>
+      <c r="H16" s="4">
+        <v>112</v>
+      </c>
+      <c r="I16" s="4">
+        <v>112</v>
+      </c>
+      <c r="J16" s="4">
+        <v>112</v>
+      </c>
+      <c r="K16" s="4">
+        <v>102</v>
+      </c>
+      <c r="L16" s="4">
+        <v>102</v>
+      </c>
+      <c r="M16" s="4">
+        <v>102</v>
+      </c>
+      <c r="N16" s="4">
+        <v>102</v>
+      </c>
+      <c r="O16" s="4">
+        <v>102</v>
+      </c>
+      <c r="P16" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>102</v>
+      </c>
+      <c r="R16" s="4">
+        <v>102</v>
+      </c>
+      <c r="S16" s="4">
+        <v>102</v>
+      </c>
+      <c r="T16" s="4">
+        <v>102</v>
+      </c>
+      <c r="U16" s="4">
+        <v>102</v>
+      </c>
+      <c r="V16" s="4">
         <v>102</v>
       </c>
       <c r="W16" s="2">
@@ -9015,10 +9012,10 @@
       <c r="AD16" s="2">
         <v>102</v>
       </c>
-      <c r="AE16" s="5">
-        <v>112</v>
-      </c>
-      <c r="AF16" s="5">
+      <c r="AE16" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF16" s="4">
         <v>112</v>
       </c>
       <c r="AG16" s="2">
@@ -9036,10 +9033,10 @@
       <c r="AK16" s="2">
         <v>102</v>
       </c>
-      <c r="AL16" s="5">
-        <v>112</v>
-      </c>
-      <c r="AM16" s="5">
+      <c r="AL16" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM16" s="4">
         <v>112</v>
       </c>
       <c r="AN16" s="2">
@@ -9431,14 +9428,1537 @@
       <c r="OO16" s="2"/>
       <c r="OP16" s="2"/>
     </row>
-    <row r="19" spans="29:29" x14ac:dyDescent="0.45">
-      <c r="AC19" s="4">
-        <v>112</v>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4">
+        <v>112</v>
+      </c>
+      <c r="D17" s="4">
+        <v>112</v>
+      </c>
+      <c r="E17" s="4">
+        <v>112</v>
+      </c>
+      <c r="F17" s="4">
+        <v>112</v>
+      </c>
+      <c r="G17" s="4">
+        <v>112</v>
+      </c>
+      <c r="H17" s="4">
+        <v>112</v>
+      </c>
+      <c r="I17" s="4">
+        <v>112</v>
+      </c>
+      <c r="J17" s="4">
+        <v>112</v>
+      </c>
+      <c r="K17" s="4">
+        <v>102</v>
+      </c>
+      <c r="L17" s="4">
+        <v>102</v>
+      </c>
+      <c r="M17" s="4">
+        <v>102</v>
+      </c>
+      <c r="N17" s="4">
+        <v>102</v>
+      </c>
+      <c r="O17" s="4">
+        <v>102</v>
+      </c>
+      <c r="P17" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>102</v>
+      </c>
+      <c r="R17" s="4">
+        <v>102</v>
+      </c>
+      <c r="S17" s="4">
+        <v>102</v>
+      </c>
+      <c r="T17" s="4">
+        <v>102</v>
+      </c>
+      <c r="U17" s="4">
+        <v>102</v>
+      </c>
+      <c r="V17" s="4">
+        <v>102</v>
+      </c>
+      <c r="W17" s="2">
+        <v>102</v>
+      </c>
+      <c r="X17" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>112</v>
+      </c>
+      <c r="B18" s="4">
+        <v>112</v>
+      </c>
+      <c r="C18" s="4">
+        <v>112</v>
+      </c>
+      <c r="D18" s="4">
+        <v>112</v>
+      </c>
+      <c r="E18" s="4">
+        <v>112</v>
+      </c>
+      <c r="F18" s="4">
+        <v>112</v>
+      </c>
+      <c r="G18" s="4">
+        <v>112</v>
+      </c>
+      <c r="H18" s="4">
+        <v>112</v>
+      </c>
+      <c r="I18" s="4">
+        <v>112</v>
+      </c>
+      <c r="J18" s="4">
+        <v>112</v>
+      </c>
+      <c r="K18" s="4">
+        <v>102</v>
+      </c>
+      <c r="L18" s="4">
+        <v>102</v>
+      </c>
+      <c r="M18" s="4">
+        <v>102</v>
+      </c>
+      <c r="N18" s="4">
+        <v>102</v>
+      </c>
+      <c r="O18" s="4">
+        <v>102</v>
+      </c>
+      <c r="P18" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>102</v>
+      </c>
+      <c r="R18" s="4">
+        <v>102</v>
+      </c>
+      <c r="S18" s="4">
+        <v>102</v>
+      </c>
+      <c r="T18" s="4">
+        <v>102</v>
+      </c>
+      <c r="U18" s="4">
+        <v>102</v>
+      </c>
+      <c r="V18" s="4">
+        <v>102</v>
+      </c>
+      <c r="W18" s="2">
+        <v>102</v>
+      </c>
+      <c r="X18" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>112</v>
+      </c>
+      <c r="B19" s="4">
+        <v>112</v>
+      </c>
+      <c r="C19" s="4">
+        <v>112</v>
+      </c>
+      <c r="D19" s="4">
+        <v>112</v>
+      </c>
+      <c r="E19" s="4">
+        <v>112</v>
+      </c>
+      <c r="F19" s="4">
+        <v>112</v>
+      </c>
+      <c r="G19" s="4">
+        <v>112</v>
+      </c>
+      <c r="H19" s="4">
+        <v>112</v>
+      </c>
+      <c r="I19" s="4">
+        <v>112</v>
+      </c>
+      <c r="J19" s="4">
+        <v>102</v>
+      </c>
+      <c r="K19" s="4">
+        <v>102</v>
+      </c>
+      <c r="L19" s="4">
+        <v>102</v>
+      </c>
+      <c r="M19" s="4">
+        <v>102</v>
+      </c>
+      <c r="N19" s="4">
+        <v>102</v>
+      </c>
+      <c r="O19" s="4">
+        <v>102</v>
+      </c>
+      <c r="P19" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>102</v>
+      </c>
+      <c r="R19" s="4">
+        <v>102</v>
+      </c>
+      <c r="S19" s="4">
+        <v>102</v>
+      </c>
+      <c r="T19" s="4">
+        <v>102</v>
+      </c>
+      <c r="U19" s="4">
+        <v>102</v>
+      </c>
+      <c r="V19" s="4">
+        <v>102</v>
+      </c>
+      <c r="W19" s="2">
+        <v>102</v>
+      </c>
+      <c r="X19" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>112</v>
+      </c>
+      <c r="B20" s="4">
+        <v>112</v>
+      </c>
+      <c r="C20" s="4">
+        <v>112</v>
+      </c>
+      <c r="D20" s="4">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4">
+        <v>112</v>
+      </c>
+      <c r="F20" s="4">
+        <v>112</v>
+      </c>
+      <c r="G20" s="4">
+        <v>112</v>
+      </c>
+      <c r="H20" s="4">
+        <v>112</v>
+      </c>
+      <c r="I20" s="4">
+        <v>102</v>
+      </c>
+      <c r="J20" s="4">
+        <v>102</v>
+      </c>
+      <c r="K20" s="4">
+        <v>102</v>
+      </c>
+      <c r="L20" s="4">
+        <v>102</v>
+      </c>
+      <c r="M20" s="4">
+        <v>102</v>
+      </c>
+      <c r="N20" s="4">
+        <v>102</v>
+      </c>
+      <c r="O20" s="4">
+        <v>102</v>
+      </c>
+      <c r="P20" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>102</v>
+      </c>
+      <c r="R20" s="4">
+        <v>102</v>
+      </c>
+      <c r="S20" s="4">
+        <v>102</v>
+      </c>
+      <c r="T20" s="4">
+        <v>102</v>
+      </c>
+      <c r="U20" s="4">
+        <v>102</v>
+      </c>
+      <c r="V20" s="4">
+        <v>102</v>
+      </c>
+      <c r="W20" s="2">
+        <v>102</v>
+      </c>
+      <c r="X20" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>112</v>
+      </c>
+      <c r="B21" s="4">
+        <v>112</v>
+      </c>
+      <c r="C21" s="4">
+        <v>112</v>
+      </c>
+      <c r="D21" s="4">
+        <v>112</v>
+      </c>
+      <c r="E21" s="4">
+        <v>112</v>
+      </c>
+      <c r="F21" s="4">
+        <v>112</v>
+      </c>
+      <c r="G21" s="4">
+        <v>112</v>
+      </c>
+      <c r="H21" s="4">
+        <v>112</v>
+      </c>
+      <c r="I21" s="4">
+        <v>102</v>
+      </c>
+      <c r="J21" s="4">
+        <v>102</v>
+      </c>
+      <c r="K21" s="4">
+        <v>102</v>
+      </c>
+      <c r="L21" s="4">
+        <v>102</v>
+      </c>
+      <c r="M21" s="4">
+        <v>102</v>
+      </c>
+      <c r="N21" s="4">
+        <v>102</v>
+      </c>
+      <c r="O21" s="4">
+        <v>102</v>
+      </c>
+      <c r="P21" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>102</v>
+      </c>
+      <c r="R21" s="4">
+        <v>102</v>
+      </c>
+      <c r="S21" s="4">
+        <v>102</v>
+      </c>
+      <c r="T21" s="4">
+        <v>102</v>
+      </c>
+      <c r="U21" s="4">
+        <v>102</v>
+      </c>
+      <c r="V21" s="4">
+        <v>102</v>
+      </c>
+      <c r="W21" s="2">
+        <v>102</v>
+      </c>
+      <c r="X21" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>102</v>
+      </c>
+      <c r="B22" s="4">
+        <v>112</v>
+      </c>
+      <c r="C22" s="4">
+        <v>112</v>
+      </c>
+      <c r="D22" s="4">
+        <v>112</v>
+      </c>
+      <c r="E22" s="4">
+        <v>112</v>
+      </c>
+      <c r="F22" s="4">
+        <v>112</v>
+      </c>
+      <c r="G22" s="4">
+        <v>112</v>
+      </c>
+      <c r="H22" s="4">
+        <v>102</v>
+      </c>
+      <c r="I22" s="4">
+        <v>102</v>
+      </c>
+      <c r="J22" s="4">
+        <v>102</v>
+      </c>
+      <c r="K22" s="4">
+        <v>102</v>
+      </c>
+      <c r="L22" s="4">
+        <v>102</v>
+      </c>
+      <c r="M22" s="4">
+        <v>102</v>
+      </c>
+      <c r="N22" s="4">
+        <v>102</v>
+      </c>
+      <c r="O22" s="4">
+        <v>102</v>
+      </c>
+      <c r="P22" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>102</v>
+      </c>
+      <c r="R22" s="4">
+        <v>102</v>
+      </c>
+      <c r="S22" s="4">
+        <v>102</v>
+      </c>
+      <c r="T22" s="4">
+        <v>102</v>
+      </c>
+      <c r="U22" s="4">
+        <v>102</v>
+      </c>
+      <c r="V22" s="4">
+        <v>102</v>
+      </c>
+      <c r="W22" s="2">
+        <v>102</v>
+      </c>
+      <c r="X22" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4">
+        <v>102</v>
+      </c>
+      <c r="D23" s="4">
+        <v>102</v>
+      </c>
+      <c r="E23" s="4">
+        <v>102</v>
+      </c>
+      <c r="F23" s="4">
+        <v>102</v>
+      </c>
+      <c r="G23" s="4">
+        <v>102</v>
+      </c>
+      <c r="H23" s="4">
+        <v>102</v>
+      </c>
+      <c r="I23" s="4">
+        <v>102</v>
+      </c>
+      <c r="J23" s="4">
+        <v>102</v>
+      </c>
+      <c r="K23" s="4">
+        <v>102</v>
+      </c>
+      <c r="L23" s="4">
+        <v>102</v>
+      </c>
+      <c r="M23" s="4">
+        <v>102</v>
+      </c>
+      <c r="N23" s="4">
+        <v>102</v>
+      </c>
+      <c r="O23" s="4">
+        <v>102</v>
+      </c>
+      <c r="P23" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>102</v>
+      </c>
+      <c r="R23" s="4">
+        <v>102</v>
+      </c>
+      <c r="S23" s="4">
+        <v>102</v>
+      </c>
+      <c r="T23" s="4">
+        <v>102</v>
+      </c>
+      <c r="U23" s="4">
+        <v>102</v>
+      </c>
+      <c r="V23" s="4">
+        <v>102</v>
+      </c>
+      <c r="W23" s="2">
+        <v>102</v>
+      </c>
+      <c r="X23" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>102</v>
+      </c>
+      <c r="B24" s="4">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4">
+        <v>102</v>
+      </c>
+      <c r="E24" s="4">
+        <v>102</v>
+      </c>
+      <c r="F24" s="4">
+        <v>102</v>
+      </c>
+      <c r="G24" s="4">
+        <v>102</v>
+      </c>
+      <c r="H24" s="4">
+        <v>102</v>
+      </c>
+      <c r="I24" s="4">
+        <v>102</v>
+      </c>
+      <c r="J24" s="4">
+        <v>102</v>
+      </c>
+      <c r="K24" s="4">
+        <v>102</v>
+      </c>
+      <c r="L24" s="4">
+        <v>102</v>
+      </c>
+      <c r="M24" s="4">
+        <v>102</v>
+      </c>
+      <c r="N24" s="4">
+        <v>102</v>
+      </c>
+      <c r="O24" s="4">
+        <v>102</v>
+      </c>
+      <c r="P24" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>102</v>
+      </c>
+      <c r="R24" s="4">
+        <v>102</v>
+      </c>
+      <c r="S24" s="4">
+        <v>102</v>
+      </c>
+      <c r="T24" s="4">
+        <v>102</v>
+      </c>
+      <c r="U24" s="4">
+        <v>102</v>
+      </c>
+      <c r="V24" s="4">
+        <v>102</v>
+      </c>
+      <c r="W24" s="2">
+        <v>102</v>
+      </c>
+      <c r="X24" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>112</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>112</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>112</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>122</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:BK16">
+  <conditionalFormatting sqref="A2:BK24">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>111</formula>
     </cfRule>
@@ -9455,7 +10975,7 @@
       <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:OP1 CM2:OP16 AC19">
+  <conditionalFormatting sqref="A1:OP1 CM2:OP16">
     <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
       <formula>111</formula>
     </cfRule>
